--- a/test/ログインユーザー登録情報更新テスト.xlsx
+++ b/test/ログインユーザー登録情報更新テスト.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="205">
   <si>
     <t>単体テスト</t>
   </si>
@@ -264,6 +264,63 @@
   </si>
   <si>
     <t>フォームの初期値にデータベースの同じID列のカラムと同じ値が入っている事</t>
+  </si>
+  <si>
+    <t>ログインユーザーの列を選んでいる場合に押された時</t>
+  </si>
+  <si>
+    <t>ログインユーザーの名前（姓）が更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーの名前（名）の入力フォームが更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーのカナ（姓）が更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーのカナ（名）が更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーのメールアドレスが更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーのパスワードが更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーの性別の選択が更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーの郵便番号が更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーの住所が更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーの勤務先会社名が更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーの担当業務が更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーのスタッフコードが更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーのアカウント権限が更新された場合にセッション値も更新している事</t>
+  </si>
+  <si>
+    <t>ログインユーザーの更新がされた時</t>
+  </si>
+  <si>
+    <t>ヘッダーの苗字が表示が変わっていること</t>
+  </si>
+  <si>
+    <t>ヘッダーの名前が表示が変わっていること</t>
+  </si>
+  <si>
+    <t>ヘッダーのメールアドレスが表示が変わっていること</t>
+  </si>
+  <si>
+    <t>ヘッダーのアカウント権限が表示が変わっていること</t>
   </si>
   <si>
     <t>結合テスト</t>
@@ -621,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -666,6 +723,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -3488,154 +3548,463 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3"/>
-      <c r="F99" s="15"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="7"/>
+      <c r="A99" s="8">
+        <v>96.0</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="3"/>
-      <c r="F100" s="15"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="7"/>
+      <c r="A100" s="3">
+        <v>97.0</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="8"/>
-      <c r="F101" s="15"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="7"/>
+      <c r="A101" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="3"/>
-      <c r="F102" s="15"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="7"/>
+      <c r="A102" s="3">
+        <v>99.0</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="8"/>
-      <c r="F103" s="15"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="7"/>
+      <c r="A103" s="8">
+        <v>100.0</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" s="3"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="6"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="7"/>
+      <c r="A104" s="3">
+        <v>101.0</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" s="8"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="6"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="7"/>
+      <c r="A105" s="8">
+        <v>102.0</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" s="3"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="6"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="7"/>
+      <c r="A106" s="3">
+        <v>103.0</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="8"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="6"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="7"/>
+      <c r="A107" s="8">
+        <v>104.0</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="3"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="6"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="7"/>
+      <c r="A108" s="3">
+        <v>105.0</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="8"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="6"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="7"/>
+      <c r="A109" s="8">
+        <v>106.0</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="3"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="6"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="7"/>
+      <c r="A110" s="3">
+        <v>107.0</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="8"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="6"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="7"/>
+      <c r="A111" s="8">
+        <v>108.0</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="3"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="6"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="7"/>
+      <c r="A112" s="3">
+        <v>109.0</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="8"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="6"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="7"/>
+      <c r="A113" s="8">
+        <v>110.0</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="3"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="6"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="7"/>
+      <c r="A114" s="3">
+        <v>111.0</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="8"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="6"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="7"/>
+      <c r="A115" s="8">
+        <v>112.0</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I115" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="3"/>
@@ -3785,7 +4154,7 @@
       <c r="B140" s="2"/>
       <c r="C140" s="4"/>
       <c r="E140" s="2"/>
-      <c r="F140" s="15"/>
+      <c r="F140" s="16"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="7"/>
@@ -3796,7 +4165,7 @@
       <c r="B141" s="2"/>
       <c r="C141" s="4"/>
       <c r="E141" s="2"/>
-      <c r="F141" s="15"/>
+      <c r="F141" s="16"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="7"/>
@@ -3807,7 +4176,7 @@
       <c r="B142" s="2"/>
       <c r="C142" s="4"/>
       <c r="E142" s="2"/>
-      <c r="F142" s="15"/>
+      <c r="F142" s="16"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="7"/>
@@ -3818,7 +4187,7 @@
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="E143" s="2"/>
-      <c r="F143" s="15"/>
+      <c r="F143" s="16"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="7"/>
@@ -4011,7 +4380,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="12" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3">
@@ -4057,10 +4426,10 @@
         <v>50</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
@@ -4086,10 +4455,10 @@
         <v>59</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
@@ -4113,10 +4482,10 @@
         <v>60</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -4140,10 +4509,10 @@
         <v>61</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
@@ -4167,10 +4536,10 @@
         <v>64</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
@@ -4194,10 +4563,10 @@
         <v>66</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -4221,10 +4590,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
@@ -4245,13 +4614,13 @@
         <v>8.0</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -4272,13 +4641,13 @@
         <v>9.0</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
@@ -4299,13 +4668,13 @@
         <v>10.0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -4326,13 +4695,13 @@
         <v>11.0</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>15</v>
@@ -4353,13 +4722,13 @@
         <v>12.0</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>15</v>
@@ -4380,13 +4749,13 @@
         <v>13.0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>15</v>
@@ -4407,13 +4776,13 @@
         <v>14.0</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>15</v>
@@ -4434,13 +4803,13 @@
         <v>15.0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>15</v>
@@ -4461,13 +4830,13 @@
         <v>16.0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>15</v>
@@ -4488,13 +4857,13 @@
         <v>17.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>15</v>
@@ -4515,13 +4884,13 @@
         <v>18.0</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
@@ -4542,13 +4911,13 @@
         <v>19.0</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>15</v>
@@ -4569,13 +4938,13 @@
         <v>20.0</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>15</v>
@@ -4596,13 +4965,13 @@
         <v>21.0</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>15</v>
@@ -4623,13 +4992,13 @@
         <v>22.0</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>15</v>
@@ -4650,13 +5019,13 @@
         <v>23.0</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>15</v>
@@ -4674,13 +5043,13 @@
     </row>
     <row r="27">
       <c r="B27" s="9" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>15</v>
@@ -4699,13 +5068,13 @@
     <row r="28">
       <c r="A28" s="3"/>
       <c r="B28" s="9" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>15</v>
@@ -4723,13 +5092,13 @@
     </row>
     <row r="29">
       <c r="B29" s="9" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>15</v>
@@ -4750,13 +5119,13 @@
         <v>27.0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>15</v>
@@ -4777,13 +5146,13 @@
         <v>28.0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>15</v>
@@ -4804,13 +5173,13 @@
         <v>29.0</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>15</v>
@@ -4831,13 +5200,13 @@
         <v>30.0</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>15</v>
@@ -4858,13 +5227,13 @@
         <v>31.0</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>15</v>
@@ -4885,13 +5254,13 @@
         <v>32.0</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>15</v>
@@ -4912,13 +5281,13 @@
         <v>33.0</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>15</v>
@@ -4939,13 +5308,13 @@
         <v>34.0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>15</v>
@@ -4966,13 +5335,13 @@
         <v>35.0</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>15</v>
@@ -4993,13 +5362,13 @@
         <v>36.0</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>15</v>
@@ -5020,13 +5389,13 @@
         <v>37.0</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>15</v>
@@ -5047,13 +5416,13 @@
         <v>38.0</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>15</v>
@@ -5074,13 +5443,13 @@
         <v>39.0</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>15</v>
@@ -5101,13 +5470,13 @@
         <v>40.0</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>15</v>
@@ -5128,13 +5497,13 @@
         <v>41.0</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>15</v>
@@ -5155,13 +5524,13 @@
         <v>42.0</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>15</v>
@@ -5182,13 +5551,13 @@
         <v>43.0</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>15</v>
@@ -5209,13 +5578,13 @@
         <v>44.0</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>15</v>
@@ -5236,13 +5605,13 @@
         <v>45.0</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>15</v>
@@ -5263,13 +5632,13 @@
         <v>46.0</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>15</v>
@@ -5290,13 +5659,13 @@
         <v>47.0</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>15</v>
@@ -5316,13 +5685,13 @@
         <v>48.0</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>15</v>
@@ -5342,13 +5711,13 @@
         <v>49.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>15</v>
@@ -5368,13 +5737,13 @@
         <v>50.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>15</v>
@@ -5394,13 +5763,13 @@
         <v>51.0</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>15</v>
@@ -5420,13 +5789,13 @@
         <v>52.0</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>15</v>
@@ -5446,13 +5815,13 @@
         <v>53.0</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>15</v>
@@ -5472,13 +5841,13 @@
         <v>54.0</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>15</v>
@@ -5498,13 +5867,13 @@
         <v>55.0</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>15</v>
@@ -5524,13 +5893,13 @@
         <v>56.0</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>15</v>
@@ -5550,13 +5919,13 @@
         <v>57.0</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>15</v>
@@ -5576,13 +5945,13 @@
         <v>58.0</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>15</v>
@@ -5602,13 +5971,13 @@
         <v>59.0</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>15</v>
@@ -5628,13 +5997,13 @@
         <v>60.0</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>15</v>
@@ -5654,13 +6023,13 @@
         <v>61.0</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>15</v>
@@ -5680,13 +6049,13 @@
         <v>62.0</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>15</v>
@@ -5706,13 +6075,13 @@
         <v>63.0</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>15</v>
@@ -5732,13 +6101,13 @@
         <v>64.0</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>15</v>
@@ -5758,13 +6127,13 @@
         <v>65.0</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>15</v>
@@ -5784,13 +6153,13 @@
         <v>66.0</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>15</v>
@@ -5810,13 +6179,13 @@
         <v>67.0</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>80</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>15</v>
@@ -5832,87 +6201,463 @@
       </c>
     </row>
     <row r="71">
-      <c r="E71" s="2"/>
-      <c r="F71" s="6"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="7"/>
+      <c r="A71" s="12">
+        <v>68.0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="3"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="6"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="7"/>
+      <c r="A72" s="3">
+        <v>69.0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
-      <c r="E73" s="2"/>
-      <c r="F73" s="6"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="7"/>
+      <c r="A73" s="12">
+        <v>70.0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="3"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="6"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="7"/>
+      <c r="A74" s="3">
+        <v>71.0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
-      <c r="E75" s="2"/>
-      <c r="F75" s="6"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="7"/>
+      <c r="A75" s="12">
+        <v>72.0</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="3"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="6"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="7"/>
+      <c r="A76" s="3">
+        <v>73.0</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
-      <c r="E77" s="2"/>
-      <c r="F77" s="6"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="7"/>
+      <c r="A77" s="12">
+        <v>74.0</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="3"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="6"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="7"/>
+      <c r="A78" s="3">
+        <v>75.0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
-      <c r="F79" s="6"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="7"/>
+      <c r="A79" s="12">
+        <v>76.0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="3"/>
-      <c r="F80" s="6"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="7"/>
+      <c r="A80" s="3">
+        <v>77.0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
-      <c r="F81" s="6"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="7"/>
+      <c r="A81" s="12">
+        <v>78.0</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
-      <c r="B82" s="9"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="9"/>
+      <c r="A82" s="3">
+        <v>79.0</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
-      <c r="B83" s="9"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="9"/>
+      <c r="A83" s="12">
+        <v>80.0</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
-      <c r="B84" s="9"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="9"/>
+      <c r="A84" s="3">
+        <v>81.0</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="12">
+        <v>82.0</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3">
+        <v>83.0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="12">
+        <v>84.0</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="15">
+        <v>45383.0</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" s="7" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
